--- a/medicine/Mort/Gamla_kyrkogården/Gamla_kyrkogården.xlsx
+++ b/medicine/Mort/Gamla_kyrkogården/Gamla_kyrkogården.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gamla_kyrkog%C3%A5rden</t>
+          <t>Gamla_kyrkogården</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Gamla kyrkogården, toponyme suédois signifiant littéralement en français « vieux cimetière », est un cimetière de Suède qui se trouve à Malmö et qui accueille les sépultures de nombreuses personnalités[1]. Créé en 1820, il est inauguré en 1822 sous le nom de « nouveau cimetière »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gamla kyrkogården, toponyme suédois signifiant littéralement en français « vieux cimetière », est un cimetière de Suède qui se trouve à Malmö et qui accueille les sépultures de nombreuses personnalités. Créé en 1820, il est inauguré en 1822 sous le nom de « nouveau cimetière ».
 Il se trouve juste au sud-ouest de la vieille-ville de Malmö et à l'angle sud-est du parc entourant la forteresse médiévale, au sud du port. En 1870, l'Östra kyrkogården, un nouveau cimetière, est créé à l'est de la ville et le Gamla kyrkogården est alors rebaptisé avec son nom actuel.
-Une sculpture de Carl Milles, Dieu Père de l'arc de ciel, est placée au centre du cimetière ; elle mesure environ trois mètres de haut[3].
+Une sculpture de Carl Milles, Dieu Père de l'arc de ciel, est placée au centre du cimetière ; elle mesure environ trois mètres de haut.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gamla_kyrkog%C3%A5rden</t>
+          <t>Gamla_kyrkogården</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,23 +525,25 @@
           <t>Liste des personnalités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Einar Bager (sv) (1887-1990), artiste et historien
-Son Canon (1774-1837), directeur de prison[4]
+Son Canon (1774-1837), directeur de prison
 Mauritz Clairfelt (sv) (1780-1841), général
 Bernhard Cronholm (sv) (1813-1871), chimiste et journaliste
-Johan Cronquist (1866-1921), médecin, fondateur de l’Hôpital de Flensburg[5]
+Johan Cronquist (1866-1921), médecin, fondateur de l’Hôpital de Flensburg
 Johan Henrik Dieden (sv) (1840-1923), personnalité politique
-Thomas Frick (1787-1867), homme d’affaires[6]
+Thomas Frick (1787-1867), homme d’affaires
 Johan Niklas Hoffman (1772-1856), juge
-Georg af Klercker (sv) (1877-1951), acteur, scénariste[7]
+Georg af Klercker (sv) (1877-1951), acteur, scénariste
 Frans Henrik Kockum (sv) (1878-1941), industriel
 Sigurd Lewerentz (1885-1975), architecte
 Gustaf Rydberg (1835-1933), peintre paysagiste
-Axel P. Sjöberg (1839-1913), industriel [8]
+Axel P. Sjöberg (1839-1913), industriel 
 Frans Suell (sv) (1744-1817), homme d’affaires
-Gustaf Wolke (1880-1926), industriel [9]
+Gustaf Wolke (1880-1926), industriel 
 Nils Werngren (sv) (1815-1897), capitaine de mer et explorateur
 			Bernhard Cronholm
 			Gustaf Rydberg
